--- a/results/Apartment Texture Rotate XAxis PET.xlsx
+++ b/results/Apartment Texture Rotate XAxis PET.xlsx
@@ -294,6 +294,9 @@
                 <c:pt idx="11">
                   <c:v>1.1200629595290974</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4892499836274611</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>0.9740718030350406</c:v>
                 </c:pt>
@@ -533,7 +536,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$31:$I$53</c:f>
+              <c:f>Sheet1!$J$31:$J$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -541,7 +544,7 @@
                   <c:v>0.4318503703261457</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33414692636610466</c:v>
+                  <c:v>0.32363186303997915</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.16184774398133261</c:v>
@@ -556,7 +559,7 @@
                   <c:v>0.31457090515080138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69151913389509523</c:v>
+                  <c:v>0.69116260168835253</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.4260932987446</c:v>
@@ -619,11 +622,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="227514856"/>
-        <c:axId val="227514072"/>
+        <c:axId val="247489024"/>
+        <c:axId val="247500392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="227514856"/>
+        <c:axId val="247489024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227514072"/>
+        <c:crossAx val="247500392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -669,7 +672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227514072"/>
+        <c:axId val="247500392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,24 +717,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227514856"/>
+        <c:crossAx val="247489024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="tr"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.57047878748762948"/>
-          <c:y val="3.9748953974895397E-2"/>
-          <c:w val="0.18642356180887226"/>
-          <c:h val="0.15412809277501399"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="lt1"/>
@@ -1622,11 +1616,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="227516816"/>
-        <c:axId val="227517208"/>
+        <c:axId val="247490984"/>
+        <c:axId val="247495296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227516816"/>
+        <c:axId val="247490984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,7 +1629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227517208"/>
+        <c:crossAx val="247495296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1643,7 +1637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227517208"/>
+        <c:axId val="247495296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1656,7 +1650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227516816"/>
+        <c:crossAx val="247490984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1850,6 +1844,9 @@
                 <c:pt idx="11">
                   <c:v>1.1200629595290974</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4892499836274611</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>0.9740718030350406</c:v>
                 </c:pt>
@@ -2175,11 +2172,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="467244872"/>
-        <c:axId val="467248008"/>
+        <c:axId val="247500784"/>
+        <c:axId val="247499608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="467244872"/>
+        <c:axId val="247500784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,7 +2214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467248008"/>
+        <c:crossAx val="247499608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2225,7 +2222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="467248008"/>
+        <c:axId val="247499608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,7 +2267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467244872"/>
+        <c:crossAx val="247500784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2713,10 +2710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3148,7 +3145,7 @@
         <v>1.5569900000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3178,7 +3175,7 @@
         <v>1.6489</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3208,7 +3205,7 @@
         <v>2.0159600000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3238,7 +3235,7 @@
         <v>1.71936</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3268,7 +3265,7 @@
         <v>12.957000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3298,7 +3295,7 @@
         <v>27.591899999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3328,7 +3325,7 @@
         <v>2.35649</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3358,7 +3355,7 @@
         <v>1.5148200000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3388,7 +3385,7 @@
         <v>1.8419399999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3418,7 +3415,7 @@
         <v>2.22458</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3448,7 +3445,7 @@
         <v>9.3230199999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3478,7 +3475,7 @@
         <v>8.2611500000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3508,7 +3505,7 @@
         <v>1.85002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3537,7 +3534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3573,8 +3570,12 @@
         <f t="shared" si="1"/>
         <v>0.4318503703261457</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f>MIN(G31:I31)</f>
+        <v>0.4318503703261457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
         <v>2</v>
@@ -3611,10 +3612,14 @@
         <f t="shared" si="3"/>
         <v>0.33414692636610466</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f t="shared" ref="J32:J53" si="4">MIN(G32:I32)</f>
+        <v>0.32363186303997915</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" ref="A33:A53" si="4">A32+1</f>
+        <f t="shared" ref="A33:A53" si="5">A32+1</f>
         <v>3</v>
       </c>
       <c r="B33">
@@ -3622,37 +3627,41 @@
         <v>8.0225399999999993</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:I33" si="5">C6/$B33</f>
+        <f t="shared" ref="C33:I33" si="6">C6/$B33</f>
         <v>0.1700284448566165</v>
       </c>
       <c r="D33">
+        <f t="shared" si="6"/>
+        <v>0.85069566496396409</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>0.16078448970026951</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="6"/>
+        <v>0.92663420811862585</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>0.19876373318176041</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>0.1741406088346085</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="6"/>
+        <v>0.16184774398133261</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>0.16184774398133261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
         <f t="shared" si="5"/>
-        <v>0.85069566496396409</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="5"/>
-        <v>0.16078448970026951</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="5"/>
-        <v>0.92663420811862585</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="5"/>
-        <v>0.19876373318176041</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="5"/>
-        <v>0.1741406088346085</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="5"/>
-        <v>0.16184774398133261</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B34">
@@ -3660,37 +3669,41 @@
         <v>2.1006300000000002</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:I34" si="6">C7/$B34</f>
+        <f t="shared" ref="C34:I34" si="7">C7/$B34</f>
         <v>1.0713214607046455</v>
       </c>
       <c r="D34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.97502653965715025</v>
       </c>
       <c r="E34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0149716989665005</v>
       </c>
       <c r="F34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0066837091729621</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.10195512774739</v>
       </c>
       <c r="H34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.99513479289546458</v>
       </c>
       <c r="I34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.94156514950276815</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>0.94156514950276815</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B35">
@@ -3698,37 +3711,41 @@
         <v>11.8889</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:I35" si="7">C8/$B35</f>
+        <f t="shared" ref="C35:I35" si="8">C8/$B35</f>
         <v>0.10972756100227944</v>
       </c>
       <c r="D35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.22849128178384881</v>
       </c>
       <c r="E35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11726904928126236</v>
       </c>
       <c r="F35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.97288226833432867</v>
       </c>
       <c r="G35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.18663627417170639</v>
       </c>
       <c r="H35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11089419542598559</v>
       </c>
       <c r="I35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10622092876548714</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>0.10622092876548714</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B36">
@@ -3736,37 +3753,41 @@
         <v>4.0884900000000002</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:I36" si="8">C9/$B36</f>
+        <f t="shared" ref="C36:I36" si="9">C9/$B36</f>
         <v>0.34771517112674849</v>
       </c>
       <c r="D36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.40203840537704627</v>
       </c>
       <c r="E36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.33491827055954643</v>
       </c>
       <c r="F36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0025412805216596</v>
       </c>
       <c r="G36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.32952263549623456</v>
       </c>
       <c r="H36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.36505653676540722</v>
       </c>
       <c r="I36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.31457090515080138</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>0.31457090515080138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B37">
@@ -3774,37 +3795,41 @@
         <v>2.60846</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:I37" si="9">C10/$B37</f>
+        <f t="shared" ref="C37:I37" si="10">C10/$B37</f>
         <v>0.67588922199305346</v>
       </c>
       <c r="D37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2055772371437552</v>
       </c>
       <c r="E37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.69354715042592185</v>
       </c>
       <c r="F37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.90216066184645349</v>
       </c>
       <c r="G37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.69116260168835253</v>
       </c>
       <c r="H37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.85441218190043167</v>
       </c>
       <c r="I37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.69151913389509523</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>0.69116260168835253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B38">
@@ -3812,35 +3837,39 @@
         <v>3.7430300000000001</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:I38" si="10">C11/$B38</f>
+        <f t="shared" ref="C38:I38" si="11">C11/$B38</f>
         <v>0.47395826375957445</v>
       </c>
       <c r="D38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.48033812178903185</v>
       </c>
       <c r="E38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41305038965757684</v>
       </c>
       <c r="F38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1251339155710747</v>
       </c>
       <c r="G38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.6074356871304798</v>
       </c>
       <c r="H38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.49460463848806985</v>
       </c>
       <c r="I38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.4260932987446</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>0.4260932987446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>A38+1</f>
         <v>9</v>
@@ -3850,35 +3879,39 @@
         <v>6.2144599999999999</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:I39" si="11">C12/$B39</f>
+        <f t="shared" ref="C39:I39" si="12">C12/$B39</f>
         <v>0.44525509859263718</v>
       </c>
       <c r="D39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.63903380181061586</v>
       </c>
       <c r="E39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40425073135879869</v>
       </c>
       <c r="F39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0671530591555822</v>
       </c>
       <c r="G39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.56648204349211351</v>
       </c>
       <c r="H39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.56842428787054711</v>
       </c>
       <c r="I39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.3716429102448161</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>0.3716429102448161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>A39+1</f>
         <v>10</v>
@@ -3888,37 +3921,41 @@
         <v>1.9281299999999999</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:I40" si="12">C13/$B40</f>
+        <f t="shared" ref="C40:I40" si="13">C13/$B40</f>
         <v>0.76506252171793399</v>
       </c>
       <c r="D40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99244864194841642</v>
       </c>
       <c r="E40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.69453823134332227</v>
       </c>
       <c r="F40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0063377469361505</v>
       </c>
       <c r="G40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.71814141162680944</v>
       </c>
       <c r="H40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.74010051189494486</v>
       </c>
       <c r="I40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.69675281231037323</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>0.69675281231037323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B41">
@@ -3926,37 +3963,41 @@
         <v>4.75549</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:I41" si="13">C14/$B41</f>
+        <f t="shared" ref="C41:I41" si="14">C14/$B41</f>
         <v>0.70084260507329421</v>
       </c>
       <c r="D41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.74705235422637839</v>
       </c>
       <c r="E41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.62209782798407731</v>
       </c>
       <c r="F41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.0825004363377908</v>
       </c>
       <c r="G41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.73218112118835277</v>
       </c>
       <c r="H41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.69831710296941008</v>
       </c>
       <c r="I41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.6320946947633157</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>0.6320946947633157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B42">
@@ -3964,37 +4005,41 @@
         <v>23.189499999999999</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:I42" si="14">C15/$B42</f>
+        <f t="shared" ref="C42:I43" si="15">C15/$B42</f>
         <v>1.0809719916341447</v>
       </c>
       <c r="D42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1200629595290974</v>
       </c>
       <c r="E42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.97045214428944138</v>
       </c>
       <c r="F42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0346363655964985</v>
       </c>
       <c r="G42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0824079863731431</v>
       </c>
       <c r="H42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0892084779749456</v>
       </c>
       <c r="I42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0191854071885984</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>1.0191854071885984</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B43">
@@ -4002,33 +4047,41 @@
         <v>2.5958100000000002</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:I43" si="15">C16/$B43</f>
+        <f t="shared" ref="C43:I43" si="16">C16/$B43</f>
         <v>0.58606754731663713</v>
       </c>
+      <c r="D43">
+        <f t="shared" si="15"/>
+        <v>1.4892499836274611</v>
+      </c>
       <c r="E43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.59021654127228107</v>
       </c>
       <c r="F43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0415515773496518</v>
       </c>
       <c r="G43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.7020352028846486</v>
       </c>
       <c r="H43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.0886967844333753</v>
       </c>
       <c r="I43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.59980892284103993</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>0.59980892284103993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B44">
@@ -4036,37 +4089,41 @@
         <v>2.4625699999999999</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:I44" si="16">C17/$B44</f>
+        <f t="shared" ref="C44:I44" si="17">C17/$B44</f>
         <v>0.83659753834408768</v>
       </c>
       <c r="D44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.9740718030350406</v>
       </c>
       <c r="E44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.62771819684313546</v>
       </c>
       <c r="F44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.97312563703772881</v>
       </c>
       <c r="G44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.68761091055279644</v>
       </c>
       <c r="H44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.001677109686222</v>
       </c>
       <c r="I44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.66958502702461253</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>0.66958502702461253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B45">
@@ -4074,37 +4131,41 @@
         <v>12.8339</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:I45" si="17">C18/$B45</f>
+        <f t="shared" ref="C45:I45" si="18">C18/$B45</f>
         <v>0.1775781329136116</v>
       </c>
       <c r="D45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.20328504975104997</v>
       </c>
       <c r="E45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.16030435019752373</v>
       </c>
       <c r="F45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95037361986613578</v>
       </c>
       <c r="G45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.18408823506494518</v>
       </c>
       <c r="H45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.24942457086310477</v>
       </c>
       <c r="I45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.15708085616998732</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>0.15708085616998732</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B46">
@@ -4112,37 +4173,41 @@
         <v>28.7606</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:I46" si="18">C19/$B46</f>
+        <f t="shared" ref="C46:I46" si="19">C19/$B46</f>
         <v>5.4572227283158213E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.436409532485414E-2</v>
       </c>
       <c r="E46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.9576295348497593E-2</v>
       </c>
       <c r="F46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.97797333852562185</v>
       </c>
       <c r="G46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.0280383580314734E-2</v>
       </c>
       <c r="H46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.4794475775887848E-2</v>
       </c>
       <c r="I46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.9781784802820523E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>5.9781784802820523E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B47">
@@ -4150,37 +4215,41 @@
         <v>17.6128</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:I47" si="19">C20/$B47</f>
+        <f t="shared" ref="C47:I47" si="20">C20/$B47</f>
         <v>0.90015783975290697</v>
       </c>
       <c r="D47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0461085119912792</v>
       </c>
       <c r="E47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.74684888263081395</v>
       </c>
       <c r="F47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0495491914970929</v>
       </c>
       <c r="G47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.8826137808866279</v>
       </c>
       <c r="H47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0574695675872092</v>
       </c>
       <c r="I47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.73565815770348841</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>0.73565815770348841</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B48">
@@ -4188,37 +4257,41 @@
         <v>34.511499999999998</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:I48" si="20">C21/$B48</f>
+        <f t="shared" ref="C48:I48" si="21">C21/$B48</f>
         <v>0.83406980281935017</v>
       </c>
       <c r="D48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.97355374295524677</v>
       </c>
       <c r="E48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.91212784144415637</v>
       </c>
       <c r="F48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0296799617518799</v>
       </c>
       <c r="G48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.94632513799747919</v>
       </c>
       <c r="H48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.96892919751387219</v>
       </c>
       <c r="I48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.79949871781869808</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>0.79949871781869808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B49">
@@ -4226,37 +4299,41 @@
         <v>3.7071299999999998</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:I49" si="21">C22/$B49</f>
+        <f t="shared" ref="C49:I49" si="22">C22/$B49</f>
         <v>0.65669668989218077</v>
       </c>
       <c r="D49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.3767388788631636</v>
       </c>
       <c r="E49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.61228497516947078</v>
       </c>
       <c r="F49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.9713390142778916</v>
       </c>
       <c r="G49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.65576874833091914</v>
       </c>
       <c r="H49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.76143000110597692</v>
       </c>
       <c r="I49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.63566424700509561</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>0.63566424700509561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B50">
@@ -4264,37 +4341,41 @@
         <v>1.80663</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:I50" si="22">C23/$B50</f>
+        <f t="shared" ref="C50:I50" si="23">C23/$B50</f>
         <v>0.88006952170616015</v>
       </c>
       <c r="D50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.93345621405600487</v>
       </c>
       <c r="E50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.83817937264409426</v>
       </c>
       <c r="F50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.93074951705661924</v>
       </c>
       <c r="G50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.95468358213912097</v>
       </c>
       <c r="H50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.4099289837985642</v>
       </c>
       <c r="I50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.83847827169924116</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>0.83847827169924116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B51">
@@ -4302,37 +4383,41 @@
         <v>2.1870599999999998</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="C51:I51" si="23">C24/$B51</f>
+        <f t="shared" ref="C51:I51" si="24">C24/$B51</f>
         <v>0.90581419805583763</v>
       </c>
       <c r="D51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.038412297787898</v>
       </c>
       <c r="E51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.80900386820663361</v>
       </c>
       <c r="F51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.043140105895586</v>
       </c>
       <c r="G51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.92470714109352292</v>
       </c>
       <c r="H51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.3298309145611005</v>
       </c>
       <c r="I51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.84219911662231495</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>0.84219911662231495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B52">
@@ -4340,37 +4425,41 @@
         <v>2.2505500000000001</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:I52" si="24">C25/$B52</f>
+        <f t="shared" ref="C52:I52" si="25">C25/$B52</f>
         <v>1.0269045344471353</v>
       </c>
       <c r="D52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0205016551509631</v>
       </c>
       <c r="E52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0611672702228343</v>
       </c>
       <c r="F52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0384972562262558</v>
       </c>
       <c r="G52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0150141076625712</v>
       </c>
       <c r="H52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.542085268045589</v>
       </c>
       <c r="I52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.98846059852036172</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>0.98846059852036172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B53">
@@ -4378,31 +4467,35 @@
         <v>11.302099999999999</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:I53" si="25">C26/$B53</f>
+        <f t="shared" ref="C53:I53" si="26">C26/$B53</f>
         <v>0.88057794569150871</v>
       </c>
       <c r="D53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.4664088974615337</v>
       </c>
       <c r="E53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.79219791012289753</v>
       </c>
       <c r="F53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.98514435370417897</v>
       </c>
       <c r="G53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.86392086426416337</v>
       </c>
       <c r="H53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.4769025225400589</v>
       </c>
       <c r="I53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
+        <v>0.82489271905221151</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="4"/>
         <v>0.82489271905221151</v>
       </c>
     </row>

--- a/results/Apartment Texture Rotate XAxis PET.xlsx
+++ b/results/Apartment Texture Rotate XAxis PET.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Documents\GitHub\phdThesis\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -67,6 +62,12 @@
   </si>
   <si>
     <t>PCA</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
 </sst>
 </file>
@@ -125,7 +126,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-AU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -622,11 +623,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="247489024"/>
-        <c:axId val="247500392"/>
+        <c:axId val="83332480"/>
+        <c:axId val="83346944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="247489024"/>
+        <c:axId val="83332480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247500392"/>
+        <c:crossAx val="83346944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -672,7 +673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247500392"/>
+        <c:axId val="83346944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +718,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247489024"/>
+        <c:crossAx val="83332480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -766,7 +767,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-AU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1615,12 +1616,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="247490984"/>
-        <c:axId val="247495296"/>
+        <c:axId val="83277312"/>
+        <c:axId val="83278848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247490984"/>
+        <c:axId val="83277312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247495296"/>
+        <c:crossAx val="83278848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1637,7 +1639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247495296"/>
+        <c:axId val="83278848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1650,7 +1652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247490984"/>
+        <c:crossAx val="83277312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1675,7 +1677,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-AU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2172,11 +2174,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="247500784"/>
-        <c:axId val="247499608"/>
+        <c:axId val="83529728"/>
+        <c:axId val="83531648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="247500784"/>
+        <c:axId val="83529728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,7 +2216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247499608"/>
+        <c:crossAx val="83531648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2222,7 +2224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247499608"/>
+        <c:axId val="83531648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2267,7 +2269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247500784"/>
+        <c:crossAx val="83529728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2331,7 +2333,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="132" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2343,7 +2345,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6070600"/>
+    <xdr:ext cx="9286875" cy="6046932"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2370,15 +2372,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>204786</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2466,7 +2468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2501,7 +2503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2710,10 +2712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:D43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3145,7 +3147,7 @@
         <v>1.5569900000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3175,7 +3177,7 @@
         <v>1.6489</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3205,7 +3207,7 @@
         <v>2.0159600000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3235,7 +3237,7 @@
         <v>1.71936</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3265,7 +3267,7 @@
         <v>12.957000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3295,7 +3297,7 @@
         <v>27.591899999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3325,7 +3327,7 @@
         <v>2.35649</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3355,7 +3357,7 @@
         <v>1.5148200000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3385,7 +3387,7 @@
         <v>1.8419399999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3415,7 +3417,7 @@
         <v>2.22458</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3445,7 +3447,7 @@
         <v>9.3230199999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3475,7 +3477,7 @@
         <v>8.2611500000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3505,7 +3507,7 @@
         <v>1.85002</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3533,8 +3535,26 @@
       <c r="I30" t="s">
         <v>10</v>
       </c>
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3574,929 +3594,1584 @@
         <f>MIN(G31:I31)</f>
         <v>0.4318503703261457</v>
       </c>
+      <c r="L31">
+        <f>MIN(C31:J31)</f>
+        <v>0.4318503703261457</v>
+      </c>
+      <c r="M31">
+        <f>IF($L31=C31, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:Q46" si="2">IF($L31=D31, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>IF($L31=J31, 1, 0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
         <v>2</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:B53" si="2">B5</f>
+        <f t="shared" ref="B32:B53" si="3">B5</f>
         <v>4.92056</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:I32" si="3">C5/$B32</f>
+        <f t="shared" ref="C32:I32" si="4">C5/$B32</f>
         <v>0.34429414538182646</v>
       </c>
       <c r="D32">
+        <f t="shared" si="4"/>
+        <v>0.34464573138016813</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>0.32446713382216658</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>0.96982254052384287</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>0.36170070073324989</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>0.32363186303997915</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>0.33414692636610466</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:J53" si="5">MIN(G32:I32)</f>
+        <v>0.32363186303997915</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L53" si="6">MIN(C32:J32)</f>
+        <v>0.32363186303997915</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:P53" si="7">IF($L32=C32, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q53" si="8">IF($L32=J32, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ref="A33:A53" si="9">A32+1</f>
+        <v>3</v>
+      </c>
+      <c r="B33">
         <f t="shared" si="3"/>
-        <v>0.34464573138016813</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="3"/>
-        <v>0.32446713382216658</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="3"/>
-        <v>0.96982254052384287</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="3"/>
-        <v>0.36170070073324989</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
-        <v>0.32363186303997915</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="3"/>
-        <v>0.33414692636610466</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ref="J32:J53" si="4">MIN(G32:I32)</f>
-        <v>0.32363186303997915</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" ref="A33:A53" si="5">A32+1</f>
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="2"/>
         <v>8.0225399999999993</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:I33" si="6">C6/$B33</f>
+        <f t="shared" ref="C33:I33" si="10">C6/$B33</f>
         <v>0.1700284448566165</v>
       </c>
       <c r="D33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.85069566496396409</v>
       </c>
       <c r="E33">
+        <f t="shared" si="10"/>
+        <v>0.16078448970026951</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="10"/>
+        <v>0.92663420811862585</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="10"/>
+        <v>0.19876373318176041</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="10"/>
+        <v>0.1741406088346085</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="10"/>
+        <v>0.16184774398133261</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>0.16184774398133261</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="6"/>
         <v>0.16078448970026951</v>
       </c>
-      <c r="F33">
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>2.1006300000000002</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:I34" si="11">C7/$B34</f>
+        <v>1.0713214607046455</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="11"/>
+        <v>0.97502653965715025</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="11"/>
+        <v>1.0149716989665005</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="11"/>
+        <v>1.0066837091729621</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="11"/>
+        <v>1.10195512774739</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="11"/>
+        <v>0.99513479289546458</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="11"/>
+        <v>0.94156514950276815</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>0.94156514950276815</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="6"/>
-        <v>0.92663420811862585</v>
-      </c>
-      <c r="G33">
+        <v>0.94156514950276815</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>11.8889</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:I35" si="12">C8/$B35</f>
+        <v>0.10972756100227944</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="12"/>
+        <v>0.22849128178384881</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="12"/>
+        <v>0.11726904928126236</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="12"/>
+        <v>0.97288226833432867</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="12"/>
+        <v>0.18663627417170639</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="12"/>
+        <v>0.11089419542598559</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="12"/>
+        <v>0.10622092876548714</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>0.10622092876548714</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="6"/>
-        <v>0.19876373318176041</v>
-      </c>
-      <c r="H33">
+        <v>0.10622092876548714</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>4.0884900000000002</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:I36" si="13">C9/$B36</f>
+        <v>0.34771517112674849</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="13"/>
+        <v>0.40203840537704627</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="13"/>
+        <v>0.33491827055954643</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="13"/>
+        <v>1.0025412805216596</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="13"/>
+        <v>0.32952263549623456</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="13"/>
+        <v>0.36505653676540722</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="13"/>
+        <v>0.31457090515080138</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>0.31457090515080138</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="6"/>
-        <v>0.1741406088346085</v>
-      </c>
-      <c r="I33">
+        <v>0.31457090515080138</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>2.60846</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:I37" si="14">C10/$B37</f>
+        <v>0.67588922199305346</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="14"/>
+        <v>1.2055772371437552</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="14"/>
+        <v>0.69354715042592185</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="14"/>
+        <v>0.90216066184645349</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="14"/>
+        <v>0.69116260168835253</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="14"/>
+        <v>0.85441218190043167</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="14"/>
+        <v>0.69151913389509523</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>0.69116260168835253</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="6"/>
-        <v>0.16184774398133261</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="4"/>
-        <v>0.16184774398133261</v>
+        <v>0.67588922199305346</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>3.7430300000000001</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:I38" si="15">C11/$B38</f>
+        <v>0.47395826375957445</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="15"/>
+        <v>0.48033812178903185</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="15"/>
+        <v>0.41305038965757684</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="15"/>
+        <v>1.1251339155710747</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="15"/>
+        <v>0.6074356871304798</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="15"/>
+        <v>0.49460463848806985</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="15"/>
+        <v>0.4260932987446</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B34">
+        <v>0.4260932987446</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>0.41305038965757684</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="2"/>
-        <v>2.1006300000000002</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:I34" si="7">C7/$B34</f>
-        <v>1.0713214607046455</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="7"/>
-        <v>0.97502653965715025</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="7"/>
-        <v>1.0149716989665005</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="7"/>
-        <v>1.0066837091729621</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="7"/>
-        <v>1.10195512774739</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="7"/>
-        <v>0.99513479289546458</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="7"/>
-        <v>0.94156514950276815</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="4"/>
-        <v>0.94156514950276815</v>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="2"/>
-        <v>11.8889</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35:I35" si="8">C8/$B35</f>
-        <v>0.10972756100227944</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="8"/>
-        <v>0.22849128178384881</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="8"/>
-        <v>0.11726904928126236</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="8"/>
-        <v>0.97288226833432867</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="8"/>
-        <v>0.18663627417170639</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="8"/>
-        <v>0.11089419542598559</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="8"/>
-        <v>0.10622092876548714</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="4"/>
-        <v>0.10622092876548714</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="2"/>
-        <v>4.0884900000000002</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ref="C36:I36" si="9">C9/$B36</f>
-        <v>0.34771517112674849</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="9"/>
-        <v>0.40203840537704627</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="9"/>
-        <v>0.33491827055954643</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="9"/>
-        <v>1.0025412805216596</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="9"/>
-        <v>0.32952263549623456</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="9"/>
-        <v>0.36505653676540722</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="9"/>
-        <v>0.31457090515080138</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="4"/>
-        <v>0.31457090515080138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="2"/>
-        <v>2.60846</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ref="C37:I37" si="10">C10/$B37</f>
-        <v>0.67588922199305346</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="10"/>
-        <v>1.2055772371437552</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="10"/>
-        <v>0.69354715042592185</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="10"/>
-        <v>0.90216066184645349</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="10"/>
-        <v>0.69116260168835253</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="10"/>
-        <v>0.85441218190043167</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="10"/>
-        <v>0.69151913389509523</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="4"/>
-        <v>0.69116260168835253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="2"/>
-        <v>3.7430300000000001</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ref="C38:I38" si="11">C11/$B38</f>
-        <v>0.47395826375957445</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="11"/>
-        <v>0.48033812178903185</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="11"/>
-        <v>0.41305038965757684</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="11"/>
-        <v>1.1251339155710747</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="11"/>
-        <v>0.6074356871304798</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="11"/>
-        <v>0.49460463848806985</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="11"/>
-        <v>0.4260932987446</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="4"/>
-        <v>0.4260932987446</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>A38+1</f>
         <v>9</v>
       </c>
       <c r="B39">
+        <f t="shared" si="3"/>
+        <v>6.2144599999999999</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:I39" si="16">C12/$B39</f>
+        <v>0.44525509859263718</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="16"/>
+        <v>0.63903380181061586</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="16"/>
+        <v>0.40425073135879869</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="16"/>
+        <v>1.0671530591555822</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="16"/>
+        <v>0.56648204349211351</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="16"/>
+        <v>0.56842428787054711</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="16"/>
+        <v>0.3716429102448161</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>0.3716429102448161</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>0.3716429102448161</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="2"/>
-        <v>6.2144599999999999</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ref="C39:I39" si="12">C12/$B39</f>
-        <v>0.44525509859263718</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="12"/>
-        <v>0.63903380181061586</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="12"/>
-        <v>0.40425073135879869</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="12"/>
-        <v>1.0671530591555822</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="12"/>
-        <v>0.56648204349211351</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="12"/>
-        <v>0.56842428787054711</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="12"/>
-        <v>0.3716429102448161</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="4"/>
-        <v>0.3716429102448161</v>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>A39+1</f>
         <v>10</v>
       </c>
       <c r="B40">
+        <f t="shared" si="3"/>
+        <v>1.9281299999999999</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:I40" si="17">C13/$B40</f>
+        <v>0.76506252171793399</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="17"/>
+        <v>0.99244864194841642</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="17"/>
+        <v>0.69453823134332227</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="17"/>
+        <v>1.0063377469361505</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="17"/>
+        <v>0.71814141162680944</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="17"/>
+        <v>0.74010051189494486</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="17"/>
+        <v>0.69675281231037323</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>0.69675281231037323</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>0.69453823134332227</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="2"/>
-        <v>1.9281299999999999</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C40:I40" si="13">C13/$B40</f>
-        <v>0.76506252171793399</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="13"/>
-        <v>0.99244864194841642</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="13"/>
-        <v>0.69453823134332227</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="13"/>
-        <v>1.0063377469361505</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="13"/>
-        <v>0.71814141162680944</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="13"/>
-        <v>0.74010051189494486</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="13"/>
-        <v>0.69675281231037323</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="4"/>
-        <v>0.69675281231037323</v>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>4.75549</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:I41" si="18">C14/$B41</f>
+        <v>0.70084260507329421</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="18"/>
+        <v>0.74705235422637839</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="18"/>
+        <v>0.62209782798407731</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="18"/>
+        <v>1.0825004363377908</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="18"/>
+        <v>0.73218112118835277</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="18"/>
+        <v>0.69831710296941008</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="18"/>
+        <v>0.6320946947633157</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="B41">
+        <v>0.6320946947633157</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>0.62209782798407731</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="2"/>
-        <v>4.75549</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ref="C41:I41" si="14">C14/$B41</f>
-        <v>0.70084260507329421</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="14"/>
-        <v>0.74705235422637839</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="14"/>
-        <v>0.62209782798407731</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="14"/>
-        <v>1.0825004363377908</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="14"/>
-        <v>0.73218112118835277</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="14"/>
-        <v>0.69831710296941008</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="14"/>
-        <v>0.6320946947633157</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="4"/>
-        <v>0.6320946947633157</v>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="3"/>
+        <v>23.189499999999999</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:I43" si="19">C15/$B42</f>
+        <v>1.0809719916341447</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="19"/>
+        <v>1.1200629595290974</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="19"/>
+        <v>0.97045214428944138</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="19"/>
+        <v>1.0346363655964985</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="19"/>
+        <v>1.0824079863731431</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="19"/>
+        <v>1.0892084779749456</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="19"/>
+        <v>1.0191854071885984</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="B42">
+        <v>1.0191854071885984</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>0.97045214428944138</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="2"/>
-        <v>23.189499999999999</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ref="C42:I43" si="15">C15/$B42</f>
-        <v>1.0809719916341447</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="15"/>
-        <v>1.1200629595290974</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="15"/>
-        <v>0.97045214428944138</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="15"/>
-        <v>1.0346363655964985</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="15"/>
-        <v>1.0824079863731431</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="15"/>
-        <v>1.0892084779749456</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="15"/>
-        <v>1.0191854071885984</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="4"/>
-        <v>1.0191854071885984</v>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="3"/>
+        <v>2.5958100000000002</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:I43" si="20">C16/$B43</f>
+        <v>0.58606754731663713</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="19"/>
+        <v>1.4892499836274611</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="20"/>
+        <v>0.59021654127228107</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="20"/>
+        <v>1.0415515773496518</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="20"/>
+        <v>0.7020352028846486</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="20"/>
+        <v>2.0886967844333753</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="20"/>
+        <v>0.59980892284103993</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="B43">
+        <v>0.59980892284103993</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="6"/>
+        <v>0.58606754731663713</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="2"/>
-        <v>2.5958100000000002</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ref="C43:I43" si="16">C16/$B43</f>
-        <v>0.58606754731663713</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="15"/>
-        <v>1.4892499836274611</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="16"/>
-        <v>0.59021654127228107</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="16"/>
-        <v>1.0415515773496518</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="16"/>
-        <v>0.7020352028846486</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="16"/>
-        <v>2.0886967844333753</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="16"/>
-        <v>0.59980892284103993</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="4"/>
-        <v>0.59980892284103993</v>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="3"/>
+        <v>2.4625699999999999</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:I44" si="21">C17/$B44</f>
+        <v>0.83659753834408768</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="21"/>
+        <v>0.9740718030350406</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="21"/>
+        <v>0.62771819684313546</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="21"/>
+        <v>0.97312563703772881</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="21"/>
+        <v>0.68761091055279644</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="21"/>
+        <v>1.001677109686222</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="21"/>
+        <v>0.66958502702461253</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="B44">
+        <v>0.66958502702461253</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>0.62771819684313546</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="2"/>
-        <v>2.4625699999999999</v>
-      </c>
-      <c r="C44">
-        <f t="shared" ref="C44:I44" si="17">C17/$B44</f>
-        <v>0.83659753834408768</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="17"/>
-        <v>0.9740718030350406</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="17"/>
-        <v>0.62771819684313546</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="17"/>
-        <v>0.97312563703772881</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="17"/>
-        <v>0.68761091055279644</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="17"/>
-        <v>1.001677109686222</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="17"/>
-        <v>0.66958502702461253</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="4"/>
-        <v>0.66958502702461253</v>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="3"/>
+        <v>12.8339</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:I45" si="22">C18/$B45</f>
+        <v>0.1775781329136116</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="22"/>
+        <v>0.20328504975104997</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="22"/>
+        <v>0.16030435019752373</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="22"/>
+        <v>0.95037361986613578</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="22"/>
+        <v>0.18408823506494518</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="22"/>
+        <v>0.24942457086310477</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="22"/>
+        <v>0.15708085616998732</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="5"/>
+        <v>0.15708085616998732</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="6"/>
+        <v>0.15708085616998732</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="3"/>
+        <v>28.7606</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:I46" si="23">C19/$B46</f>
+        <v>5.4572227283158213E-2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="23"/>
+        <v>6.436409532485414E-2</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="23"/>
+        <v>5.9576295348497593E-2</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="23"/>
+        <v>0.97797333852562185</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="23"/>
+        <v>6.0280383580314734E-2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="23"/>
+        <v>8.4794475775887848E-2</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="23"/>
+        <v>5.9781784802820523E-2</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>5.9781784802820523E-2</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="6"/>
+        <v>5.4572227283158213E-2</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="3"/>
+        <v>17.6128</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:I47" si="24">C20/$B47</f>
+        <v>0.90015783975290697</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="24"/>
+        <v>1.0461085119912792</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="24"/>
+        <v>0.74684888263081395</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="24"/>
+        <v>1.0495491914970929</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="24"/>
+        <v>0.8826137808866279</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="24"/>
+        <v>1.0574695675872092</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="24"/>
+        <v>0.73565815770348841</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>0.73565815770348841</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="6"/>
+        <v>0.73565815770348841</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="3"/>
+        <v>34.511499999999998</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:I48" si="25">C21/$B48</f>
+        <v>0.83406980281935017</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="25"/>
+        <v>0.97355374295524677</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="25"/>
+        <v>0.91212784144415637</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="25"/>
+        <v>1.0296799617518799</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="25"/>
+        <v>0.94632513799747919</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="25"/>
+        <v>0.96892919751387219</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="25"/>
+        <v>0.79949871781869808</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>0.79949871781869808</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="6"/>
+        <v>0.79949871781869808</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="3"/>
+        <v>3.7071299999999998</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:I49" si="26">C22/$B49</f>
+        <v>0.65669668989218077</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="26"/>
+        <v>1.3767388788631636</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="26"/>
+        <v>0.61228497516947078</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="26"/>
+        <v>0.9713390142778916</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="26"/>
+        <v>0.65576874833091914</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="26"/>
+        <v>0.76143000110597692</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="26"/>
+        <v>0.63566424700509561</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>0.63566424700509561</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="6"/>
+        <v>0.61228497516947078</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="3"/>
+        <v>1.80663</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:I50" si="27">C23/$B50</f>
+        <v>0.88006952170616015</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="27"/>
+        <v>0.93345621405600487</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="27"/>
+        <v>0.83817937264409426</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="27"/>
+        <v>0.93074951705661924</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="27"/>
+        <v>0.95468358213912097</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="27"/>
+        <v>7.4099289837985642</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="27"/>
+        <v>0.83847827169924116</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>0.83847827169924116</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="6"/>
+        <v>0.83817937264409426</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="3"/>
+        <v>2.1870599999999998</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:I51" si="28">C24/$B51</f>
+        <v>0.90581419805583763</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="28"/>
+        <v>1.038412297787898</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="28"/>
+        <v>0.80900386820663361</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="28"/>
+        <v>1.043140105895586</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="28"/>
+        <v>0.92470714109352292</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="28"/>
+        <v>1.3298309145611005</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="28"/>
+        <v>0.84219911662231495</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>0.84219911662231495</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="6"/>
+        <v>0.80900386820663361</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="3"/>
+        <v>2.2505500000000001</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:I52" si="29">C25/$B52</f>
+        <v>1.0269045344471353</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="29"/>
+        <v>1.0205016551509631</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="29"/>
+        <v>1.0611672702228343</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="29"/>
+        <v>1.0384972562262558</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="29"/>
+        <v>1.0150141076625712</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="29"/>
+        <v>1.542085268045589</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="29"/>
+        <v>0.98846059852036172</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>0.98846059852036172</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="6"/>
+        <v>0.98846059852036172</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="3"/>
+        <v>11.302099999999999</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:I53" si="30">C26/$B53</f>
+        <v>0.88057794569150871</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="30"/>
+        <v>1.4664088974615337</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="30"/>
+        <v>0.79219791012289753</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="30"/>
+        <v>0.98514435370417897</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="30"/>
+        <v>0.86392086426416337</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="30"/>
+        <v>1.4769025225400589</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="30"/>
+        <v>0.82489271905221151</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="5"/>
+        <v>0.82489271905221151</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="6"/>
+        <v>0.79219791012289753</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>15</v>
       </c>
-      <c r="B45">
-        <f t="shared" si="2"/>
-        <v>12.8339</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ref="C45:I45" si="18">C18/$B45</f>
-        <v>0.1775781329136116</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="18"/>
-        <v>0.20328504975104997</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="18"/>
-        <v>0.16030435019752373</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="18"/>
-        <v>0.95037361986613578</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="18"/>
-        <v>0.18408823506494518</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="18"/>
-        <v>0.24942457086310477</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="18"/>
-        <v>0.15708085616998732</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="4"/>
-        <v>0.15708085616998732</v>
+      <c r="B54">
+        <f>AVERAGE(B31:B53)</f>
+        <v>8.5437282608695657</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54:J54" si="31">AVERAGE(C31:C53)</f>
+        <v>0.62431378085170608</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="31"/>
+        <v>0.84130462321563071</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="31"/>
+        <v>0.58417160994293293</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="31"/>
+        <v>1.0050774542914684</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="31"/>
+        <v>0.64797352814125164</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="31"/>
+        <v>1.0816753134358235</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="31"/>
+        <v>0.57733037828257872</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="31"/>
+        <v>0.57685770021593219</v>
+      </c>
+      <c r="M54">
+        <f>AVERAGE(M31:M53)*100</f>
+        <v>13.043478260869565</v>
+      </c>
+      <c r="N54">
+        <f t="shared" ref="N54:Q54" si="32">AVERAGE(N31:N53)*100</f>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="32"/>
+        <v>43.478260869565219</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="32"/>
+        <v>43.478260869565219</v>
+      </c>
+      <c r="R54">
+        <f>SUM(M54:Q54)</f>
+        <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="2"/>
-        <v>28.7606</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ref="C46:I46" si="19">C19/$B46</f>
-        <v>5.4572227283158213E-2</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="19"/>
-        <v>6.436409532485414E-2</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="19"/>
-        <v>5.9576295348497593E-2</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="19"/>
-        <v>0.97797333852562185</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="19"/>
-        <v>6.0280383580314734E-2</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="19"/>
-        <v>8.4794475775887848E-2</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="19"/>
-        <v>5.9781784802820523E-2</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="4"/>
-        <v>5.9781784802820523E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="2"/>
-        <v>17.6128</v>
-      </c>
-      <c r="C47">
-        <f t="shared" ref="C47:I47" si="20">C20/$B47</f>
-        <v>0.90015783975290697</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="20"/>
-        <v>1.0461085119912792</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="20"/>
-        <v>0.74684888263081395</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="20"/>
-        <v>1.0495491914970929</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="20"/>
-        <v>0.8826137808866279</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="20"/>
-        <v>1.0574695675872092</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="20"/>
-        <v>0.73565815770348841</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="4"/>
-        <v>0.73565815770348841</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="2"/>
-        <v>34.511499999999998</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ref="C48:I48" si="21">C21/$B48</f>
-        <v>0.83406980281935017</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="21"/>
-        <v>0.97355374295524677</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="21"/>
-        <v>0.91212784144415637</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="21"/>
-        <v>1.0296799617518799</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="21"/>
-        <v>0.94632513799747919</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="21"/>
-        <v>0.96892919751387219</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="21"/>
-        <v>0.79949871781869808</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="4"/>
-        <v>0.79949871781869808</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="2"/>
-        <v>3.7071299999999998</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ref="C49:I49" si="22">C22/$B49</f>
-        <v>0.65669668989218077</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="22"/>
-        <v>1.3767388788631636</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="22"/>
-        <v>0.61228497516947078</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="22"/>
-        <v>0.9713390142778916</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="22"/>
-        <v>0.65576874833091914</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="22"/>
-        <v>0.76143000110597692</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="22"/>
-        <v>0.63566424700509561</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="4"/>
-        <v>0.63566424700509561</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="2"/>
-        <v>1.80663</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ref="C50:I50" si="23">C23/$B50</f>
-        <v>0.88006952170616015</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="23"/>
-        <v>0.93345621405600487</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="23"/>
-        <v>0.83817937264409426</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="23"/>
-        <v>0.93074951705661924</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="23"/>
-        <v>0.95468358213912097</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="23"/>
-        <v>7.4099289837985642</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="23"/>
-        <v>0.83847827169924116</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="4"/>
-        <v>0.83847827169924116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="2"/>
-        <v>2.1870599999999998</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ref="C51:I51" si="24">C24/$B51</f>
-        <v>0.90581419805583763</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="24"/>
-        <v>1.038412297787898</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="24"/>
-        <v>0.80900386820663361</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="24"/>
-        <v>1.043140105895586</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="24"/>
-        <v>0.92470714109352292</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="24"/>
-        <v>1.3298309145611005</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="24"/>
-        <v>0.84219911662231495</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="4"/>
-        <v>0.84219911662231495</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="2"/>
-        <v>2.2505500000000001</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:I52" si="25">C25/$B52</f>
-        <v>1.0269045344471353</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="25"/>
-        <v>1.0205016551509631</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="25"/>
-        <v>1.0611672702228343</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="25"/>
-        <v>1.0384972562262558</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="25"/>
-        <v>1.0150141076625712</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="25"/>
-        <v>1.542085268045589</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="25"/>
-        <v>0.98846059852036172</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="4"/>
-        <v>0.98846059852036172</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="2"/>
-        <v>11.302099999999999</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ref="C53:I53" si="26">C26/$B53</f>
-        <v>0.88057794569150871</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="26"/>
-        <v>1.4664088974615337</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="26"/>
-        <v>0.79219791012289753</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="26"/>
-        <v>0.98514435370417897</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="26"/>
-        <v>0.86392086426416337</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="26"/>
-        <v>1.4769025225400589</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="26"/>
-        <v>0.82489271905221151</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="4"/>
-        <v>0.82489271905221151</v>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f>B54*1000</f>
+        <v>8543.7282608695659</v>
+      </c>
+      <c r="C55">
+        <f>C54*1000</f>
+        <v>624.31378085170604</v>
+      </c>
+      <c r="D55">
+        <f>D54*1000</f>
+        <v>841.30462321563073</v>
+      </c>
+      <c r="E55">
+        <f>E54*1000</f>
+        <v>584.17160994293295</v>
+      </c>
+      <c r="F55">
+        <f>F54*1000</f>
+        <v>1005.0774542914685</v>
+      </c>
+      <c r="G55">
+        <f>G54*1000</f>
+        <v>647.97352814125168</v>
+      </c>
+      <c r="H55">
+        <f>H54*1000</f>
+        <v>1081.6753134358235</v>
+      </c>
+      <c r="I55">
+        <f>I54*1000</f>
+        <v>577.33037828257875</v>
+      </c>
+      <c r="J55">
+        <f>J54*1000</f>
+        <v>576.85770021593214</v>
       </c>
     </row>
   </sheetData>
